--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl13-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl13-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Ccr10</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,75 +525,75 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>48.06441766666666</v>
+        <v>0.2087556666666667</v>
       </c>
       <c r="H2">
-        <v>144.193253</v>
+        <v>0.626267</v>
       </c>
       <c r="I2">
-        <v>0.9481034702552612</v>
+        <v>0.004212716022507852</v>
       </c>
       <c r="J2">
-        <v>0.950244165855522</v>
+        <v>0.004233737959305679</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.5706193333333334</v>
+        <v>0.1452775</v>
       </c>
       <c r="N2">
-        <v>1.711858</v>
+        <v>0.290555</v>
       </c>
       <c r="O2">
-        <v>0.2443278446591134</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.3265937887468804</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>27.42648596600822</v>
+        <v>0.03032750136416667</v>
       </c>
       <c r="R2">
-        <v>246.838373694074</v>
+        <v>0.181965008185</v>
       </c>
       <c r="S2">
-        <v>0.2316480774012938</v>
+        <v>0.004212716022507852</v>
       </c>
       <c r="T2">
-        <v>0.310343842361374</v>
+        <v>0.004233737959305679</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -608,412 +608,226 @@
         <v>144.193253</v>
       </c>
       <c r="I3">
-        <v>0.9481034702552612</v>
+        <v>0.9699460888896084</v>
       </c>
       <c r="J3">
-        <v>0.950244165855522</v>
+        <v>0.9747862312749473</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>1.7648465</v>
+        <v>0.1452775</v>
       </c>
       <c r="N3">
-        <v>3.529693</v>
+        <v>0.290555</v>
       </c>
       <c r="O3">
-        <v>0.7556721553408867</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.6734062112531195</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>84.82631929355483</v>
+        <v>6.982678437569167</v>
       </c>
       <c r="R3">
-        <v>508.957915761329</v>
+        <v>41.896070625415</v>
       </c>
       <c r="S3">
-        <v>0.7164553928539675</v>
+        <v>0.9699460888896084</v>
       </c>
       <c r="T3">
-        <v>0.6399003234941479</v>
+        <v>0.9747862312749473</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.755309666666667</v>
+        <v>0.245141</v>
       </c>
       <c r="H4">
-        <v>5.265929</v>
+        <v>0.735423</v>
       </c>
       <c r="I4">
-        <v>0.03462468218965708</v>
+        <v>0.004946976697512072</v>
       </c>
       <c r="J4">
-        <v>0.03470286026530938</v>
+        <v>0.004971662679410635</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.5706193333333334</v>
+        <v>0.1452775</v>
       </c>
       <c r="N4">
-        <v>1.711858</v>
+        <v>0.290555</v>
       </c>
       <c r="O4">
-        <v>0.2443278446591134</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.3265937887468804</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.001613631786889</v>
+        <v>0.0356134716275</v>
       </c>
       <c r="R4">
-        <v>9.014522686082</v>
+        <v>0.213680829765</v>
       </c>
       <c r="S4">
-        <v>0.008459773971405704</v>
+        <v>0.004946976697512072</v>
       </c>
       <c r="T4">
-        <v>0.01133373861440096</v>
+        <v>0.004971662679410635</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.755309666666667</v>
+        <v>0.7381525</v>
       </c>
       <c r="H5">
-        <v>5.265929</v>
+        <v>1.476305</v>
       </c>
       <c r="I5">
-        <v>0.03462468218965708</v>
+        <v>0.01489601175123818</v>
       </c>
       <c r="J5">
-        <v>0.03470286026530938</v>
+        <v>0.009980229707158081</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.7648465</v>
+        <v>0.1452775</v>
       </c>
       <c r="N5">
-        <v>3.529693</v>
+        <v>0.290555</v>
       </c>
       <c r="O5">
-        <v>0.7556721553408867</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.6734062112531195</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>3.097852121632833</v>
+        <v>0.10723694981875</v>
       </c>
       <c r="R5">
-        <v>18.587112729797</v>
+        <v>0.428947799275</v>
       </c>
       <c r="S5">
-        <v>0.02616490821825138</v>
+        <v>0.01489601175123818</v>
       </c>
       <c r="T5">
-        <v>0.02336912165090842</v>
+        <v>0.009980229707158081</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.2972333333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.8917</v>
+      </c>
+      <c r="I6">
+        <v>0.005998206639133552</v>
+      </c>
+      <c r="J6">
+        <v>0.006028138379178328</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.5</v>
       </c>
-      <c r="G6">
-        <v>0.342617</v>
-      </c>
-      <c r="H6">
-        <v>0.685234</v>
-      </c>
-      <c r="I6">
-        <v>0.006758354359377276</v>
-      </c>
-      <c r="J6">
-        <v>0.004515742569077367</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M6">
-        <v>0.5706193333333334</v>
+        <v>0.1452775</v>
       </c>
       <c r="N6">
-        <v>1.711858</v>
+        <v>0.290555</v>
       </c>
       <c r="O6">
-        <v>0.2443278446591134</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.3265937887468804</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.1955038841286667</v>
+        <v>0.04318131558333334</v>
       </c>
       <c r="R6">
-        <v>1.173023304772</v>
+        <v>0.2590878935</v>
       </c>
       <c r="S6">
-        <v>0.001651254154069173</v>
+        <v>0.005998206639133552</v>
       </c>
       <c r="T6">
-        <v>0.001474813474640549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.342617</v>
-      </c>
-      <c r="H7">
-        <v>0.685234</v>
-      </c>
-      <c r="I7">
-        <v>0.006758354359377276</v>
-      </c>
-      <c r="J7">
-        <v>0.004515742569077367</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.7648465</v>
-      </c>
-      <c r="N7">
-        <v>3.529693</v>
-      </c>
-      <c r="O7">
-        <v>0.7556721553408867</v>
-      </c>
-      <c r="P7">
-        <v>0.6734062112531195</v>
-      </c>
-      <c r="Q7">
-        <v>0.6046664132905</v>
-      </c>
-      <c r="R7">
-        <v>2.418665653162</v>
-      </c>
-      <c r="S7">
-        <v>0.005107100205308105</v>
-      </c>
-      <c r="T7">
-        <v>0.003040929094436818</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.5329849999999999</v>
-      </c>
-      <c r="H8">
-        <v>1.598955</v>
-      </c>
-      <c r="I8">
-        <v>0.01051349319570452</v>
-      </c>
-      <c r="J8">
-        <v>0.0105372313100913</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.5706193333333334</v>
-      </c>
-      <c r="N8">
-        <v>1.711858</v>
-      </c>
-      <c r="O8">
-        <v>0.2443278446591134</v>
-      </c>
-      <c r="P8">
-        <v>0.3265937887468804</v>
-      </c>
-      <c r="Q8">
-        <v>0.3041315453766666</v>
-      </c>
-      <c r="R8">
-        <v>2.73718390839</v>
-      </c>
-      <c r="S8">
-        <v>0.00256873913234474</v>
-      </c>
-      <c r="T8">
-        <v>0.003441394296464972</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.5329849999999999</v>
-      </c>
-      <c r="H9">
-        <v>1.598955</v>
-      </c>
-      <c r="I9">
-        <v>0.01051349319570452</v>
-      </c>
-      <c r="J9">
-        <v>0.0105372313100913</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.7648465</v>
-      </c>
-      <c r="N9">
-        <v>3.529693</v>
-      </c>
-      <c r="O9">
-        <v>0.7556721553408867</v>
-      </c>
-      <c r="P9">
-        <v>0.6734062112531195</v>
-      </c>
-      <c r="Q9">
-        <v>0.9406367118024999</v>
-      </c>
-      <c r="R9">
-        <v>5.643820270815</v>
-      </c>
-      <c r="S9">
-        <v>0.007944754063359784</v>
-      </c>
-      <c r="T9">
-        <v>0.007095837013626326</v>
+        <v>0.006028138379178328</v>
       </c>
     </row>
   </sheetData>
